--- a/outputs-GTDB-r202/g__RUG099.xlsx
+++ b/outputs-GTDB-r202/g__RUG099.xlsx
@@ -778,7 +778,7 @@
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>s__RUG099 sp900318105</t>
+          <t>s__RUG099 sp900318105(reject)</t>
         </is>
       </c>
     </row>
